--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="13460"/>
+    <workbookView windowWidth="25600" windowHeight="9680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -31,7 +31,34 @@
     <t>接口名称</t>
   </si>
   <si>
-    <t>请求</t>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>请求参数(get)</t>
+  </si>
+  <si>
+    <t>提交数据（post）</t>
+  </si>
+  <si>
+    <t>取值方式</t>
+  </si>
+  <si>
+    <t>传值变量</t>
+  </si>
+  <si>
+    <t>取值代码</t>
+  </si>
+  <si>
+    <t>期望结果类型</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>测试结果</t>
   </si>
   <si>
     <t>case01</t>
@@ -46,18 +73,51 @@
     <t>step_01</t>
   </si>
   <si>
-    <t>获取access_token</t>
+    <t>获取access_token接口</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>/cgi-bin/token</t>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>json键是否存在</t>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
+  </si>
+  <si>
     <t>case02</t>
   </si>
   <si>
     <t>测试能否正确新增用户标签</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>json取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>$.access_token</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
+  </si>
+  <si>
     <t>step_02</t>
   </si>
   <si>
@@ -67,6 +127,21 @@
     <t>post</t>
   </si>
   <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "衡东8888"}}</t>
+  </si>
+  <si>
+    <t>json键值对</t>
+  </si>
+  <si>
+    <t>{"errcode":45157}</t>
+  </si>
+  <si>
     <t>case03</t>
   </si>
   <si>
@@ -74,6 +149,15 @@
   </si>
   <si>
     <t>删除标签接口</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/delete</t>
+  </si>
+  <si>
+    <t>{"tag":{"id":408}}</t>
+  </si>
+  <si>
+    <t>{"errcode":0,"errmsg":"ok"}</t>
   </si>
 </sst>
 </file>
@@ -86,7 +170,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +179,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -102,11 +193,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,10 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,8 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,25 +247,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,16 +292,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,43 +325,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +339,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,31 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,31 +453,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,37 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,37 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,46 +546,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +568,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,165 +604,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1018,21 +1106,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="29.1607142857143" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="22.0178571428571" customWidth="1"/>
-    <col min="4" max="5" width="19.0357142857143" customWidth="1"/>
+    <col min="1" max="1" width="14.1339285714286" customWidth="1"/>
+    <col min="2" max="2" width="32.8839285714286" customWidth="1"/>
+    <col min="3" max="3" width="11.1517857142857" customWidth="1"/>
+    <col min="4" max="4" width="16.0178571428571" customWidth="1"/>
+    <col min="5" max="5" width="21.2678571428571" customWidth="1"/>
+    <col min="6" max="6" width="10.4196428571429" customWidth="1"/>
+    <col min="7" max="7" width="19.8392857142857" customWidth="1"/>
+    <col min="8" max="8" width="26.7053571428571" customWidth="1"/>
+    <col min="9" max="9" width="26.3392857142857" customWidth="1"/>
+    <col min="10" max="10" width="12.7946428571429" customWidth="1"/>
+    <col min="11" max="11" width="10.4107142857143" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="18.1696428571429" customWidth="1"/>
+    <col min="14" max="14" width="37.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,117 +1149,235 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" ht="18" customHeight="1" spans="4:14">
       <c r="D4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="17" customHeight="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" ht="19" customHeight="1" spans="4:14">
       <c r="D6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
+    <row r="8" ht="28.8" spans="8:8">
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
+      <formula1>"get,post"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
+      <formula1>"无,正则取值,json取值"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
+      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
